--- a/Jogos_do_Dia/2024-01-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -787,10 +787,10 @@
         <v>1.33</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3">
@@ -830,10 +830,10 @@
         <v>3.38</v>
       </c>
       <c r="J3" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="L3" t="n">
         <v>2.57</v>
@@ -857,10 +857,10 @@
         <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="T3" t="n">
-        <v>2.19</v>
+        <v>2.32</v>
       </c>
       <c r="U3" t="n">
         <v>1.56</v>
@@ -969,13 +969,13 @@
         <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>3.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.32</v>
@@ -996,10 +996,10 @@
         <v>4.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="T4" t="n">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1108,13 +1108,13 @@
         <v>4.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L5" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="M5" t="n">
         <v>1.33</v>
@@ -1135,10 +1135,10 @@
         <v>3.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
         <v>1.6</v>
@@ -1180,10 +1180,10 @@
         <v>2.89</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ5" t="n">
         <v>1.48</v>
@@ -1204,10 +1204,10 @@
         <v>1.6</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">
@@ -1247,37 +1247,37 @@
         <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T6" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="U6" t="n">
         <v>1.44</v>
@@ -1286,13 +1286,13 @@
         <v>2.63</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z6" t="n">
         <v>1.33</v>
@@ -1310,13 +1310,13 @@
         <v>3.18</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1325,28 +1325,28 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="7">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.38</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.3</v>
-      </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
         <v>1.85</v>
@@ -1395,28 +1395,28 @@
         <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1425,13 +1425,13 @@
         <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="Z7" t="n">
         <v>1.89</v>
@@ -1449,13 +1449,13 @@
         <v>2.54</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1464,28 +1464,28 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="8">
@@ -1525,37 +1525,37 @@
         <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="T8" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1564,13 +1564,13 @@
         <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Z8" t="n">
         <v>1.38</v>
@@ -1588,43 +1588,43 @@
         <v>3.23</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="9">
@@ -1727,49 +1727,49 @@
         <v>3.09</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,20 +1781,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>2.3</v>
@@ -1803,19 +1803,19 @@
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.02</v>
@@ -1824,91 +1824,91 @@
         <v>10</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R10" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T10" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W10" t="n">
         <v>1.3</v>
       </c>
       <c r="X10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.89</v>
+        <v>1.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.67</v>
+        <v>1.45</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.14</v>
+        <v>1.56</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.63</v>
+        <v>3.17</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.43</v>
+        <v>2.62</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.91</v>
+        <v>1.58</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.78</v>
+        <v>2.36</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.45</v>
+        <v>1.92</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.26</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,20 +1920,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
         <v>2.3</v>
@@ -1942,19 +1942,19 @@
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
       <c r="L11" t="n">
-        <v>3.8</v>
+        <v>3.98</v>
       </c>
       <c r="M11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
         <v>1.02</v>
@@ -1963,85 +1963,85 @@
         <v>10</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="T11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.1</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.25</v>
       </c>
       <c r="W11" t="n">
         <v>1.3</v>
       </c>
       <c r="X11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM11" t="n">
         <v>1.78</v>
       </c>
-      <c r="Z11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AN11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO11" t="n">
         <v>1.45</v>
       </c>
-      <c r="AB11" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="12">
@@ -2063,55 +2063,55 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="K12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R12" t="n">
         <v>3.8</v>
       </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
       <c r="S12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U12" t="n">
         <v>1.62</v>
@@ -2120,67 +2120,67 @@
         <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.58</v>
+        <v>1.09</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="13">
@@ -2283,43 +2283,43 @@
         <v>3.34</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="14">
@@ -2422,43 +2422,43 @@
         <v>2.77</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="15">
@@ -2561,43 +2561,43 @@
         <v>3.29</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="16">
@@ -2619,55 +2619,55 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
         <v>2.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="J16" t="n">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="Q16" t="n">
         <v>1.22</v>
       </c>
       <c r="R16" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="S16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="T16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="n">
         <v>1.62</v>
@@ -2676,28 +2676,28 @@
         <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="X16" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.09</v>
+        <v>1.58</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -2776,37 +2776,37 @@
         <v>6.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L17" t="n">
         <v>7.8</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="T17" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="U17" t="n">
         <v>1.8</v>
@@ -2815,13 +2815,13 @@
         <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Z17" t="n">
         <v>1.44</v>
@@ -2839,13 +2839,13 @@
         <v>2.69</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>4.57</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -2854,28 +2854,28 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="18">
@@ -2915,13 +2915,13 @@
         <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="L18" t="n">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="M18" t="n">
         <v>1.4</v>
@@ -2942,10 +2942,10 @@
         <v>3.3</v>
       </c>
       <c r="S18" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="U18" t="n">
         <v>1.91</v>
@@ -3057,10 +3057,10 @@
         <v>1.84</v>
       </c>
       <c r="K19" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="L19" t="n">
-        <v>4.35</v>
+        <v>4.28</v>
       </c>
       <c r="M19" t="n">
         <v>1.42</v>
@@ -3081,10 +3081,10 @@
         <v>3.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="U19" t="n">
         <v>1.93</v>
@@ -3193,13 +3193,13 @@
         <v>3.61</v>
       </c>
       <c r="J20" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="L20" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="M20" t="n">
         <v>1.41</v>
@@ -3220,10 +3220,10 @@
         <v>3.2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.97</v>
+        <v>2.09</v>
       </c>
       <c r="T20" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="U20" t="n">
         <v>1.73</v>
@@ -3298,7 +3298,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -3314,130 +3314,130 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Standard Liège</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>4.33</v>
       </c>
       <c r="H21" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.65</v>
+        <v>2.84</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.35</v>
+        <v>2.48</v>
       </c>
       <c r="M21" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="N21" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="O21" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="P21" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="R21" t="n">
-        <v>4.3</v>
+        <v>2.74</v>
       </c>
       <c r="S21" t="n">
-        <v>1.66</v>
+        <v>2.27</v>
       </c>
       <c r="T21" t="n">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.75</v>
       </c>
-      <c r="V21" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="X21" t="n">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.45</v>
+        <v>1.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AA21" t="n">
         <v>0.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.89</v>
+        <v>2.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.28</v>
+        <v>2.33</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>4.6</v>
+        <v>1.81</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -3449,134 +3449,134 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.21</v>
+        <v>1.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="AC22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AH22" t="n">
         <v>1.26</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AI22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN22" t="n">
         <v>2.55</v>
       </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3588,128 +3588,128 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AE23" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3749,13 +3749,13 @@
         <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.41</v>
+        <v>2.52</v>
       </c>
       <c r="K24" t="n">
-        <v>3.15</v>
+        <v>3.09</v>
       </c>
       <c r="L24" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="M24" t="n">
         <v>1.44</v>
@@ -3776,10 +3776,10 @@
         <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>1.91</v>
+        <v>2.42</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="U24" t="n">
         <v>1.91</v>
@@ -3888,13 +3888,13 @@
         <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.09</v>
+        <v>2.29</v>
       </c>
       <c r="K25" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="L25" t="n">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="M25" t="n">
         <v>1.4</v>
@@ -3915,10 +3915,10 @@
         <v>3.4</v>
       </c>
       <c r="S25" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="T25" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="U25" t="n">
         <v>1.75</v>
